--- a/experiment_results/worst_case/GPL/3wise/0.95_worst_case.xlsx
+++ b/experiment_results/worst_case/GPL/3wise/0.95_worst_case.xlsx
@@ -22,13 +22,15 @@
     <sheet name="rogot1" sheetId="13" r:id="rId13"/>
     <sheet name="geometric_mean" sheetId="14" r:id="rId14"/>
     <sheet name="m2" sheetId="15" r:id="rId15"/>
+    <sheet name="wong1" sheetId="16" r:id="rId16"/>
+    <sheet name="sokal" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="87">
   <si>
     <t>MUTATED_PROJECT</t>
   </si>
@@ -5873,13 +5875,13 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>103</v>
@@ -9182,13 +9184,13 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33">
         <v>249</v>
@@ -10398,13 +10400,13 @@
         <v>79</v>
       </c>
       <c r="B71">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C71">
         <v>8</v>
       </c>
       <c r="D71">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E71">
         <v>41</v>
@@ -18181,6 +18183,5024 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>32</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>966</v>
+      </c>
+      <c r="J2">
+        <v>11</v>
+      </c>
+      <c r="K2">
+        <v>117</v>
+      </c>
+      <c r="L2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>113</v>
+      </c>
+      <c r="C3">
+        <v>111</v>
+      </c>
+      <c r="D3">
+        <v>111</v>
+      </c>
+      <c r="E3">
+        <v>113</v>
+      </c>
+      <c r="G3">
+        <v>134</v>
+      </c>
+      <c r="H3">
+        <v>966</v>
+      </c>
+      <c r="J3">
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <v>299</v>
+      </c>
+      <c r="L3">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>966</v>
+      </c>
+      <c r="J4">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>99</v>
+      </c>
+      <c r="L4">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>130</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>116</v>
+      </c>
+      <c r="E5">
+        <v>327</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>966</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>85</v>
+      </c>
+      <c r="L5">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>64</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>966</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>85</v>
+      </c>
+      <c r="L6">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>34</v>
+      </c>
+      <c r="G7">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>966</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>85</v>
+      </c>
+      <c r="L7">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>103</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>966</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>41</v>
+      </c>
+      <c r="L8">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>307</v>
+      </c>
+      <c r="C9">
+        <v>241</v>
+      </c>
+      <c r="D9">
+        <v>276</v>
+      </c>
+      <c r="E9">
+        <v>307</v>
+      </c>
+      <c r="G9">
+        <v>13</v>
+      </c>
+      <c r="H9">
+        <v>966</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>30</v>
+      </c>
+      <c r="L9">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>966</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>85</v>
+      </c>
+      <c r="L10">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>325</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>966</v>
+      </c>
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>85</v>
+      </c>
+      <c r="L11">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>966</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>41</v>
+      </c>
+      <c r="L12">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>35</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>966</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <v>47</v>
+      </c>
+      <c r="L13">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>308</v>
+      </c>
+      <c r="C14">
+        <v>188</v>
+      </c>
+      <c r="D14">
+        <v>270</v>
+      </c>
+      <c r="E14">
+        <v>308</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>966</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <v>30</v>
+      </c>
+      <c r="L14">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>126</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>966</v>
+      </c>
+      <c r="J15">
+        <v>6</v>
+      </c>
+      <c r="K15">
+        <v>47</v>
+      </c>
+      <c r="L15">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>18</v>
+      </c>
+      <c r="H16">
+        <v>967</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>150</v>
+      </c>
+      <c r="L16">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>157</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>59</v>
+      </c>
+      <c r="E17">
+        <v>207</v>
+      </c>
+      <c r="G17">
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <v>966</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>33</v>
+      </c>
+      <c r="L17">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>269</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>966</v>
+      </c>
+      <c r="J18">
+        <v>11</v>
+      </c>
+      <c r="K18">
+        <v>117</v>
+      </c>
+      <c r="L18">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>131</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>966</v>
+      </c>
+      <c r="J19">
+        <v>9</v>
+      </c>
+      <c r="K19">
+        <v>85</v>
+      </c>
+      <c r="L19">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>130</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>966</v>
+      </c>
+      <c r="J20">
+        <v>9</v>
+      </c>
+      <c r="K20">
+        <v>85</v>
+      </c>
+      <c r="L20">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>37</v>
+      </c>
+      <c r="C21">
+        <v>33</v>
+      </c>
+      <c r="D21">
+        <v>33</v>
+      </c>
+      <c r="E21">
+        <v>39</v>
+      </c>
+      <c r="G21">
+        <v>51</v>
+      </c>
+      <c r="H21">
+        <v>966</v>
+      </c>
+      <c r="J21">
+        <v>9</v>
+      </c>
+      <c r="K21">
+        <v>134</v>
+      </c>
+      <c r="L21">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>159</v>
+      </c>
+      <c r="G22">
+        <v>9</v>
+      </c>
+      <c r="H22">
+        <v>966</v>
+      </c>
+      <c r="J22">
+        <v>9</v>
+      </c>
+      <c r="K22">
+        <v>85</v>
+      </c>
+      <c r="L22">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>19</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>966</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>85</v>
+      </c>
+      <c r="L23">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>61</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>966</v>
+      </c>
+      <c r="J24">
+        <v>6</v>
+      </c>
+      <c r="K24">
+        <v>47</v>
+      </c>
+      <c r="L24">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>17</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>966</v>
+      </c>
+      <c r="J25">
+        <v>6</v>
+      </c>
+      <c r="K25">
+        <v>33</v>
+      </c>
+      <c r="L25">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>36</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>191</v>
+      </c>
+      <c r="G26">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>966</v>
+      </c>
+      <c r="J26">
+        <v>9</v>
+      </c>
+      <c r="K26">
+        <v>85</v>
+      </c>
+      <c r="L26">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>33</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>966</v>
+      </c>
+      <c r="J27">
+        <v>9</v>
+      </c>
+      <c r="K27">
+        <v>85</v>
+      </c>
+      <c r="L27">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>36</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>309</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>966</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
+      </c>
+      <c r="K28">
+        <v>61</v>
+      </c>
+      <c r="L28">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>45</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <v>966</v>
+      </c>
+      <c r="J29">
+        <v>9</v>
+      </c>
+      <c r="K29">
+        <v>85</v>
+      </c>
+      <c r="L29">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>190</v>
+      </c>
+      <c r="G30">
+        <v>13</v>
+      </c>
+      <c r="H30">
+        <v>966</v>
+      </c>
+      <c r="J30">
+        <v>9</v>
+      </c>
+      <c r="K30">
+        <v>85</v>
+      </c>
+      <c r="L30">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>969</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="K31">
+        <v>106</v>
+      </c>
+      <c r="L31">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>129</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>966</v>
+      </c>
+      <c r="J32">
+        <v>9</v>
+      </c>
+      <c r="K32">
+        <v>85</v>
+      </c>
+      <c r="L32">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>249</v>
+      </c>
+      <c r="G33">
+        <v>15</v>
+      </c>
+      <c r="H33">
+        <v>966</v>
+      </c>
+      <c r="J33">
+        <v>11</v>
+      </c>
+      <c r="K33">
+        <v>117</v>
+      </c>
+      <c r="L33">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>56</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>966</v>
+      </c>
+      <c r="J34">
+        <v>9</v>
+      </c>
+      <c r="K34">
+        <v>85</v>
+      </c>
+      <c r="L34">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>330</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>966</v>
+      </c>
+      <c r="J35">
+        <v>6</v>
+      </c>
+      <c r="K35">
+        <v>30</v>
+      </c>
+      <c r="L35">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>146</v>
+      </c>
+      <c r="G36">
+        <v>8</v>
+      </c>
+      <c r="H36">
+        <v>966</v>
+      </c>
+      <c r="J36">
+        <v>10</v>
+      </c>
+      <c r="K36">
+        <v>207</v>
+      </c>
+      <c r="L36">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>98</v>
+      </c>
+      <c r="G37">
+        <v>11</v>
+      </c>
+      <c r="H37">
+        <v>966</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>29</v>
+      </c>
+      <c r="L37">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>14</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>19</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>966</v>
+      </c>
+      <c r="J38">
+        <v>9</v>
+      </c>
+      <c r="K38">
+        <v>92</v>
+      </c>
+      <c r="L38">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>65</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>966</v>
+      </c>
+      <c r="J39">
+        <v>6</v>
+      </c>
+      <c r="K39">
+        <v>47</v>
+      </c>
+      <c r="L39">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>325</v>
+      </c>
+      <c r="G40">
+        <v>9</v>
+      </c>
+      <c r="H40">
+        <v>966</v>
+      </c>
+      <c r="J40">
+        <v>5</v>
+      </c>
+      <c r="K40">
+        <v>41</v>
+      </c>
+      <c r="L40">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>17</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>17</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>966</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
+      </c>
+      <c r="K41">
+        <v>33</v>
+      </c>
+      <c r="L41">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>19</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>19</v>
+      </c>
+      <c r="G42">
+        <v>21</v>
+      </c>
+      <c r="H42">
+        <v>966</v>
+      </c>
+      <c r="J42">
+        <v>11</v>
+      </c>
+      <c r="K42">
+        <v>167</v>
+      </c>
+      <c r="L42">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>15</v>
+      </c>
+      <c r="C43">
+        <v>13</v>
+      </c>
+      <c r="D43">
+        <v>13</v>
+      </c>
+      <c r="E43">
+        <v>15</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>966</v>
+      </c>
+      <c r="J43">
+        <v>9</v>
+      </c>
+      <c r="K43">
+        <v>85</v>
+      </c>
+      <c r="L43">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>41</v>
+      </c>
+      <c r="C44">
+        <v>39</v>
+      </c>
+      <c r="D44">
+        <v>39</v>
+      </c>
+      <c r="E44">
+        <v>41</v>
+      </c>
+      <c r="G44">
+        <v>56</v>
+      </c>
+      <c r="H44">
+        <v>966</v>
+      </c>
+      <c r="J44">
+        <v>13</v>
+      </c>
+      <c r="K44">
+        <v>246</v>
+      </c>
+      <c r="L44">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>41</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>41</v>
+      </c>
+      <c r="G45">
+        <v>51</v>
+      </c>
+      <c r="H45">
+        <v>967</v>
+      </c>
+      <c r="J45">
+        <v>19</v>
+      </c>
+      <c r="K45">
+        <v>239</v>
+      </c>
+      <c r="L45">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>42</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>966</v>
+      </c>
+      <c r="J46">
+        <v>4</v>
+      </c>
+      <c r="K46">
+        <v>29</v>
+      </c>
+      <c r="L46">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>34</v>
+      </c>
+      <c r="C47">
+        <v>9</v>
+      </c>
+      <c r="D47">
+        <v>32</v>
+      </c>
+      <c r="E47">
+        <v>38</v>
+      </c>
+      <c r="G47">
+        <v>15</v>
+      </c>
+      <c r="H47">
+        <v>966</v>
+      </c>
+      <c r="J47">
+        <v>9</v>
+      </c>
+      <c r="K47">
+        <v>85</v>
+      </c>
+      <c r="L47">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>20</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>27</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="H48">
+        <v>966</v>
+      </c>
+      <c r="J48">
+        <v>6</v>
+      </c>
+      <c r="K48">
+        <v>47</v>
+      </c>
+      <c r="L48">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>27</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>29</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>966</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="K49">
+        <v>29</v>
+      </c>
+      <c r="L49">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>47</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>966</v>
+      </c>
+      <c r="J50">
+        <v>6</v>
+      </c>
+      <c r="K50">
+        <v>47</v>
+      </c>
+      <c r="L50">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>26</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+      <c r="H51">
+        <v>966</v>
+      </c>
+      <c r="J51">
+        <v>6</v>
+      </c>
+      <c r="K51">
+        <v>47</v>
+      </c>
+      <c r="L51">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>18</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>7</v>
+      </c>
+      <c r="E52">
+        <v>75</v>
+      </c>
+      <c r="G52">
+        <v>9</v>
+      </c>
+      <c r="H52">
+        <v>966</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+      <c r="K52">
+        <v>41</v>
+      </c>
+      <c r="L52">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <v>34</v>
+      </c>
+      <c r="C53">
+        <v>9</v>
+      </c>
+      <c r="D53">
+        <v>32</v>
+      </c>
+      <c r="E53">
+        <v>89</v>
+      </c>
+      <c r="G53">
+        <v>15</v>
+      </c>
+      <c r="H53">
+        <v>966</v>
+      </c>
+      <c r="J53">
+        <v>9</v>
+      </c>
+      <c r="K53">
+        <v>85</v>
+      </c>
+      <c r="L53">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54">
+        <v>34</v>
+      </c>
+      <c r="C54">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <v>32</v>
+      </c>
+      <c r="E54">
+        <v>38</v>
+      </c>
+      <c r="G54">
+        <v>15</v>
+      </c>
+      <c r="H54">
+        <v>966</v>
+      </c>
+      <c r="J54">
+        <v>9</v>
+      </c>
+      <c r="K54">
+        <v>85</v>
+      </c>
+      <c r="L54">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55">
+        <v>30</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>129</v>
+      </c>
+      <c r="G55">
+        <v>10</v>
+      </c>
+      <c r="H55">
+        <v>966</v>
+      </c>
+      <c r="J55">
+        <v>9</v>
+      </c>
+      <c r="K55">
+        <v>85</v>
+      </c>
+      <c r="L55">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56">
+        <v>21</v>
+      </c>
+      <c r="C56">
+        <v>19</v>
+      </c>
+      <c r="D56">
+        <v>19</v>
+      </c>
+      <c r="E56">
+        <v>21</v>
+      </c>
+      <c r="G56">
+        <v>15</v>
+      </c>
+      <c r="H56">
+        <v>966</v>
+      </c>
+      <c r="J56">
+        <v>9</v>
+      </c>
+      <c r="K56">
+        <v>85</v>
+      </c>
+      <c r="L56">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57">
+        <v>30</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>131</v>
+      </c>
+      <c r="G57">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>966</v>
+      </c>
+      <c r="J57">
+        <v>9</v>
+      </c>
+      <c r="K57">
+        <v>85</v>
+      </c>
+      <c r="L57">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58">
+        <v>29</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>20</v>
+      </c>
+      <c r="E58">
+        <v>123</v>
+      </c>
+      <c r="G58">
+        <v>10</v>
+      </c>
+      <c r="H58">
+        <v>966</v>
+      </c>
+      <c r="J58">
+        <v>9</v>
+      </c>
+      <c r="K58">
+        <v>85</v>
+      </c>
+      <c r="L58">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>46</v>
+      </c>
+      <c r="G59">
+        <v>4</v>
+      </c>
+      <c r="H59">
+        <v>966</v>
+      </c>
+      <c r="J59">
+        <v>4</v>
+      </c>
+      <c r="K59">
+        <v>29</v>
+      </c>
+      <c r="L59">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>52</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <v>966</v>
+      </c>
+      <c r="J60">
+        <v>4</v>
+      </c>
+      <c r="K60">
+        <v>29</v>
+      </c>
+      <c r="L60">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61">
+        <v>16</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>25</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>966</v>
+      </c>
+      <c r="J61">
+        <v>6</v>
+      </c>
+      <c r="K61">
+        <v>47</v>
+      </c>
+      <c r="L61">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62">
+        <v>59</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>38</v>
+      </c>
+      <c r="E62">
+        <v>59</v>
+      </c>
+      <c r="G62">
+        <v>5</v>
+      </c>
+      <c r="H62">
+        <v>966</v>
+      </c>
+      <c r="J62">
+        <v>6</v>
+      </c>
+      <c r="K62">
+        <v>30</v>
+      </c>
+      <c r="L62">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63">
+        <v>137</v>
+      </c>
+      <c r="C63">
+        <v>53</v>
+      </c>
+      <c r="D63">
+        <v>53</v>
+      </c>
+      <c r="E63">
+        <v>137</v>
+      </c>
+      <c r="G63">
+        <v>183</v>
+      </c>
+      <c r="H63">
+        <v>966</v>
+      </c>
+      <c r="J63">
+        <v>20</v>
+      </c>
+      <c r="K63">
+        <v>237</v>
+      </c>
+      <c r="L63">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64">
+        <v>17</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>209</v>
+      </c>
+      <c r="G64">
+        <v>4</v>
+      </c>
+      <c r="H64">
+        <v>966</v>
+      </c>
+      <c r="J64">
+        <v>6</v>
+      </c>
+      <c r="K64">
+        <v>33</v>
+      </c>
+      <c r="L64">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65">
+        <v>41</v>
+      </c>
+      <c r="C65">
+        <v>35</v>
+      </c>
+      <c r="D65">
+        <v>36</v>
+      </c>
+      <c r="E65">
+        <v>41</v>
+      </c>
+      <c r="G65">
+        <v>50</v>
+      </c>
+      <c r="H65">
+        <v>966</v>
+      </c>
+      <c r="J65">
+        <v>13</v>
+      </c>
+      <c r="K65">
+        <v>190</v>
+      </c>
+      <c r="L65">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66">
+        <v>36</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>424</v>
+      </c>
+      <c r="G66">
+        <v>4</v>
+      </c>
+      <c r="H66">
+        <v>966</v>
+      </c>
+      <c r="J66">
+        <v>6</v>
+      </c>
+      <c r="K66">
+        <v>55</v>
+      </c>
+      <c r="L66">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>211</v>
+      </c>
+      <c r="G67">
+        <v>5</v>
+      </c>
+      <c r="H67">
+        <v>966</v>
+      </c>
+      <c r="J67">
+        <v>11</v>
+      </c>
+      <c r="K67">
+        <v>117</v>
+      </c>
+      <c r="L67">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68">
+        <v>16</v>
+      </c>
+      <c r="C68">
+        <v>9</v>
+      </c>
+      <c r="D68">
+        <v>14</v>
+      </c>
+      <c r="E68">
+        <v>63</v>
+      </c>
+      <c r="G68">
+        <v>10</v>
+      </c>
+      <c r="H68">
+        <v>966</v>
+      </c>
+      <c r="J68">
+        <v>9</v>
+      </c>
+      <c r="K68">
+        <v>85</v>
+      </c>
+      <c r="L68">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69">
+        <v>12</v>
+      </c>
+      <c r="C69">
+        <v>8</v>
+      </c>
+      <c r="D69">
+        <v>8</v>
+      </c>
+      <c r="E69">
+        <v>19</v>
+      </c>
+      <c r="G69">
+        <v>10</v>
+      </c>
+      <c r="H69">
+        <v>967</v>
+      </c>
+      <c r="J69">
+        <v>7</v>
+      </c>
+      <c r="K69">
+        <v>111</v>
+      </c>
+      <c r="L69">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>12</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>966</v>
+      </c>
+      <c r="J70">
+        <v>6</v>
+      </c>
+      <c r="K70">
+        <v>91</v>
+      </c>
+      <c r="L70">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>41</v>
+      </c>
+      <c r="G71">
+        <v>5</v>
+      </c>
+      <c r="H71">
+        <v>966</v>
+      </c>
+      <c r="J71">
+        <v>6</v>
+      </c>
+      <c r="K71">
+        <v>47</v>
+      </c>
+      <c r="L71">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>45</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>966</v>
+      </c>
+      <c r="J72">
+        <v>6</v>
+      </c>
+      <c r="K72">
+        <v>47</v>
+      </c>
+      <c r="L72">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73">
+        <v>74</v>
+      </c>
+      <c r="C73">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <v>31</v>
+      </c>
+      <c r="E73">
+        <v>431</v>
+      </c>
+      <c r="G73">
+        <v>15</v>
+      </c>
+      <c r="H73">
+        <v>966</v>
+      </c>
+      <c r="J73">
+        <v>6</v>
+      </c>
+      <c r="K73">
+        <v>55</v>
+      </c>
+      <c r="L73">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74">
+        <v>14</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>154</v>
+      </c>
+      <c r="G74">
+        <v>14</v>
+      </c>
+      <c r="H74">
+        <v>966</v>
+      </c>
+      <c r="J74">
+        <v>9</v>
+      </c>
+      <c r="K74">
+        <v>122</v>
+      </c>
+      <c r="L74">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75">
+        <v>21</v>
+      </c>
+      <c r="C75">
+        <v>17</v>
+      </c>
+      <c r="D75">
+        <v>17</v>
+      </c>
+      <c r="E75">
+        <v>22</v>
+      </c>
+      <c r="G75">
+        <v>24</v>
+      </c>
+      <c r="H75">
+        <v>966</v>
+      </c>
+      <c r="J75">
+        <v>7</v>
+      </c>
+      <c r="K75">
+        <v>110</v>
+      </c>
+      <c r="L75">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76">
+        <v>45</v>
+      </c>
+      <c r="C76">
+        <v>8</v>
+      </c>
+      <c r="D76">
+        <v>8</v>
+      </c>
+      <c r="E76">
+        <v>104</v>
+      </c>
+      <c r="G76">
+        <v>10</v>
+      </c>
+      <c r="H76">
+        <v>966</v>
+      </c>
+      <c r="J76">
+        <v>5</v>
+      </c>
+      <c r="K76">
+        <v>41</v>
+      </c>
+      <c r="L76">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77">
+        <v>31</v>
+      </c>
+      <c r="C77">
+        <v>6</v>
+      </c>
+      <c r="D77">
+        <v>6</v>
+      </c>
+      <c r="E77">
+        <v>34</v>
+      </c>
+      <c r="G77">
+        <v>11</v>
+      </c>
+      <c r="H77">
+        <v>966</v>
+      </c>
+      <c r="J77">
+        <v>9</v>
+      </c>
+      <c r="K77">
+        <v>85</v>
+      </c>
+      <c r="L77">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78">
+        <v>32</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78">
+        <v>269</v>
+      </c>
+      <c r="G78">
+        <v>17</v>
+      </c>
+      <c r="H78">
+        <v>966</v>
+      </c>
+      <c r="J78">
+        <v>11</v>
+      </c>
+      <c r="K78">
+        <v>117</v>
+      </c>
+      <c r="L78">
+        <v>966</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>32</v>
+      </c>
+      <c r="G2">
+        <v>169</v>
+      </c>
+      <c r="H2">
+        <v>966</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>62</v>
+      </c>
+      <c r="L2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>93</v>
+      </c>
+      <c r="C3">
+        <v>94</v>
+      </c>
+      <c r="D3">
+        <v>93</v>
+      </c>
+      <c r="E3">
+        <v>113</v>
+      </c>
+      <c r="G3">
+        <v>787</v>
+      </c>
+      <c r="H3">
+        <v>966</v>
+      </c>
+      <c r="J3">
+        <v>28</v>
+      </c>
+      <c r="K3">
+        <v>743</v>
+      </c>
+      <c r="L3">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>713</v>
+      </c>
+      <c r="H4">
+        <v>966</v>
+      </c>
+      <c r="J4">
+        <v>39</v>
+      </c>
+      <c r="K4">
+        <v>852</v>
+      </c>
+      <c r="L4">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>327</v>
+      </c>
+      <c r="G5">
+        <v>306</v>
+      </c>
+      <c r="H5">
+        <v>966</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>30</v>
+      </c>
+      <c r="L5">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>64</v>
+      </c>
+      <c r="G6">
+        <v>385</v>
+      </c>
+      <c r="H6">
+        <v>966</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>30</v>
+      </c>
+      <c r="L6">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>34</v>
+      </c>
+      <c r="G7">
+        <v>869</v>
+      </c>
+      <c r="H7">
+        <v>966</v>
+      </c>
+      <c r="J7">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <v>442</v>
+      </c>
+      <c r="L7">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>103</v>
+      </c>
+      <c r="G8">
+        <v>432</v>
+      </c>
+      <c r="H8">
+        <v>966</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>25</v>
+      </c>
+      <c r="L8">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <v>227</v>
+      </c>
+      <c r="D9">
+        <v>64</v>
+      </c>
+      <c r="E9">
+        <v>307</v>
+      </c>
+      <c r="G9">
+        <v>762</v>
+      </c>
+      <c r="H9">
+        <v>966</v>
+      </c>
+      <c r="J9">
+        <v>42</v>
+      </c>
+      <c r="K9">
+        <v>881</v>
+      </c>
+      <c r="L9">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <v>854</v>
+      </c>
+      <c r="H10">
+        <v>966</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>30</v>
+      </c>
+      <c r="L10">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>325</v>
+      </c>
+      <c r="G11">
+        <v>328</v>
+      </c>
+      <c r="H11">
+        <v>966</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>30</v>
+      </c>
+      <c r="L11">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <v>966</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>25</v>
+      </c>
+      <c r="L12">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>35</v>
+      </c>
+      <c r="G13">
+        <v>14</v>
+      </c>
+      <c r="H13">
+        <v>966</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>31</v>
+      </c>
+      <c r="L13">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>178</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>308</v>
+      </c>
+      <c r="G14">
+        <v>674</v>
+      </c>
+      <c r="H14">
+        <v>966</v>
+      </c>
+      <c r="J14">
+        <v>42</v>
+      </c>
+      <c r="K14">
+        <v>881</v>
+      </c>
+      <c r="L14">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>42</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>42</v>
+      </c>
+      <c r="E15">
+        <v>126</v>
+      </c>
+      <c r="G15">
+        <v>450</v>
+      </c>
+      <c r="H15">
+        <v>966</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>31</v>
+      </c>
+      <c r="L15">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>80</v>
+      </c>
+      <c r="H16">
+        <v>967</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>95</v>
+      </c>
+      <c r="L16">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>207</v>
+      </c>
+      <c r="G17">
+        <v>411</v>
+      </c>
+      <c r="H17">
+        <v>966</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>17</v>
+      </c>
+      <c r="L17">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>269</v>
+      </c>
+      <c r="G18">
+        <v>73</v>
+      </c>
+      <c r="H18">
+        <v>966</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>62</v>
+      </c>
+      <c r="L18">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>131</v>
+      </c>
+      <c r="G19">
+        <v>655</v>
+      </c>
+      <c r="H19">
+        <v>966</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>30</v>
+      </c>
+      <c r="L19">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>130</v>
+      </c>
+      <c r="G20">
+        <v>657</v>
+      </c>
+      <c r="H20">
+        <v>966</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>30</v>
+      </c>
+      <c r="L20">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>39</v>
+      </c>
+      <c r="G21">
+        <v>195</v>
+      </c>
+      <c r="H21">
+        <v>966</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>118</v>
+      </c>
+      <c r="L21">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>159</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>966</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>30</v>
+      </c>
+      <c r="L22">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>19</v>
+      </c>
+      <c r="G23">
+        <v>815</v>
+      </c>
+      <c r="H23">
+        <v>966</v>
+      </c>
+      <c r="J23">
+        <v>36</v>
+      </c>
+      <c r="K23">
+        <v>835</v>
+      </c>
+      <c r="L23">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>31</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>31</v>
+      </c>
+      <c r="E24">
+        <v>61</v>
+      </c>
+      <c r="G24">
+        <v>474</v>
+      </c>
+      <c r="H24">
+        <v>966</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>31</v>
+      </c>
+      <c r="L24">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>17</v>
+      </c>
+      <c r="G25">
+        <v>309</v>
+      </c>
+      <c r="H25">
+        <v>966</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>17</v>
+      </c>
+      <c r="L25">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>191</v>
+      </c>
+      <c r="G26">
+        <v>16</v>
+      </c>
+      <c r="H26">
+        <v>966</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
+      <c r="L26">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>33</v>
+      </c>
+      <c r="G27">
+        <v>668</v>
+      </c>
+      <c r="H27">
+        <v>966</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>30</v>
+      </c>
+      <c r="L27">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>309</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>966</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>45</v>
+      </c>
+      <c r="L28">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <v>45</v>
+      </c>
+      <c r="G29">
+        <v>916</v>
+      </c>
+      <c r="H29">
+        <v>966</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>30</v>
+      </c>
+      <c r="L29">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>190</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>966</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>30</v>
+      </c>
+      <c r="L30">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>13</v>
+      </c>
+      <c r="H31">
+        <v>969</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>90</v>
+      </c>
+      <c r="L31">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>129</v>
+      </c>
+      <c r="G32">
+        <v>427</v>
+      </c>
+      <c r="H32">
+        <v>966</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>30</v>
+      </c>
+      <c r="L32">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>95</v>
+      </c>
+      <c r="C33">
+        <v>31</v>
+      </c>
+      <c r="D33">
+        <v>95</v>
+      </c>
+      <c r="E33">
+        <v>249</v>
+      </c>
+      <c r="G33">
+        <v>491</v>
+      </c>
+      <c r="H33">
+        <v>966</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
+      <c r="K33">
+        <v>62</v>
+      </c>
+      <c r="L33">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>56</v>
+      </c>
+      <c r="G34">
+        <v>405</v>
+      </c>
+      <c r="H34">
+        <v>966</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>30</v>
+      </c>
+      <c r="L34">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>330</v>
+      </c>
+      <c r="G35">
+        <v>163</v>
+      </c>
+      <c r="H35">
+        <v>966</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>14</v>
+      </c>
+      <c r="L35">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>146</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>966</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>73</v>
+      </c>
+      <c r="L36">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>98</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>966</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>13</v>
+      </c>
+      <c r="L37">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>19</v>
+      </c>
+      <c r="G38">
+        <v>462</v>
+      </c>
+      <c r="H38">
+        <v>966</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38">
+        <v>31</v>
+      </c>
+      <c r="L38">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>26</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>26</v>
+      </c>
+      <c r="E39">
+        <v>65</v>
+      </c>
+      <c r="G39">
+        <v>363</v>
+      </c>
+      <c r="H39">
+        <v>966</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>31</v>
+      </c>
+      <c r="L39">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>325</v>
+      </c>
+      <c r="G40">
+        <v>6</v>
+      </c>
+      <c r="H40">
+        <v>966</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>25</v>
+      </c>
+      <c r="L40">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>17</v>
+      </c>
+      <c r="G41">
+        <v>309</v>
+      </c>
+      <c r="H41">
+        <v>966</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+      <c r="K41">
+        <v>17</v>
+      </c>
+      <c r="L41">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>19</v>
+      </c>
+      <c r="G42">
+        <v>794</v>
+      </c>
+      <c r="H42">
+        <v>966</v>
+      </c>
+      <c r="J42">
+        <v>42</v>
+      </c>
+      <c r="K42">
+        <v>897</v>
+      </c>
+      <c r="L42">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>15</v>
+      </c>
+      <c r="G43">
+        <v>682</v>
+      </c>
+      <c r="H43">
+        <v>966</v>
+      </c>
+      <c r="J43">
+        <v>42</v>
+      </c>
+      <c r="K43">
+        <v>897</v>
+      </c>
+      <c r="L43">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>11</v>
+      </c>
+      <c r="E44">
+        <v>41</v>
+      </c>
+      <c r="G44">
+        <v>393</v>
+      </c>
+      <c r="H44">
+        <v>966</v>
+      </c>
+      <c r="J44">
+        <v>28</v>
+      </c>
+      <c r="K44">
+        <v>743</v>
+      </c>
+      <c r="L44">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>41</v>
+      </c>
+      <c r="G45">
+        <v>200</v>
+      </c>
+      <c r="H45">
+        <v>967</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+      <c r="K45">
+        <v>95</v>
+      </c>
+      <c r="L45">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>42</v>
+      </c>
+      <c r="G46">
+        <v>149</v>
+      </c>
+      <c r="H46">
+        <v>966</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>13</v>
+      </c>
+      <c r="L46">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>38</v>
+      </c>
+      <c r="G47">
+        <v>894</v>
+      </c>
+      <c r="H47">
+        <v>966</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+      <c r="K47">
+        <v>30</v>
+      </c>
+      <c r="L47">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>27</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>966</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+      <c r="K48">
+        <v>31</v>
+      </c>
+      <c r="L48">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>29</v>
+      </c>
+      <c r="G49">
+        <v>206</v>
+      </c>
+      <c r="H49">
+        <v>966</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>13</v>
+      </c>
+      <c r="L49">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>47</v>
+      </c>
+      <c r="G50">
+        <v>143</v>
+      </c>
+      <c r="H50">
+        <v>966</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="K50">
+        <v>31</v>
+      </c>
+      <c r="L50">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>26</v>
+      </c>
+      <c r="G51">
+        <v>506</v>
+      </c>
+      <c r="H51">
+        <v>966</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <v>31</v>
+      </c>
+      <c r="L51">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>75</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>966</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>25</v>
+      </c>
+      <c r="L52">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>89</v>
+      </c>
+      <c r="G53">
+        <v>760</v>
+      </c>
+      <c r="H53">
+        <v>966</v>
+      </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+      <c r="K53">
+        <v>30</v>
+      </c>
+      <c r="L53">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>38</v>
+      </c>
+      <c r="G54">
+        <v>788</v>
+      </c>
+      <c r="H54">
+        <v>966</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+      <c r="K54">
+        <v>30</v>
+      </c>
+      <c r="L54">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>8</v>
+      </c>
+      <c r="E55">
+        <v>129</v>
+      </c>
+      <c r="G55">
+        <v>684</v>
+      </c>
+      <c r="H55">
+        <v>966</v>
+      </c>
+      <c r="J55">
+        <v>3</v>
+      </c>
+      <c r="K55">
+        <v>30</v>
+      </c>
+      <c r="L55">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>21</v>
+      </c>
+      <c r="G56">
+        <v>818</v>
+      </c>
+      <c r="H56">
+        <v>966</v>
+      </c>
+      <c r="J56">
+        <v>42</v>
+      </c>
+      <c r="K56">
+        <v>897</v>
+      </c>
+      <c r="L56">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>131</v>
+      </c>
+      <c r="G57">
+        <v>13</v>
+      </c>
+      <c r="H57">
+        <v>966</v>
+      </c>
+      <c r="J57">
+        <v>3</v>
+      </c>
+      <c r="K57">
+        <v>30</v>
+      </c>
+      <c r="L57">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>123</v>
+      </c>
+      <c r="G58">
+        <v>362</v>
+      </c>
+      <c r="H58">
+        <v>966</v>
+      </c>
+      <c r="J58">
+        <v>3</v>
+      </c>
+      <c r="K58">
+        <v>30</v>
+      </c>
+      <c r="L58">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>46</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59">
+        <v>966</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>13</v>
+      </c>
+      <c r="L59">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60">
+        <v>16</v>
+      </c>
+      <c r="C60">
+        <v>6</v>
+      </c>
+      <c r="D60">
+        <v>16</v>
+      </c>
+      <c r="E60">
+        <v>52</v>
+      </c>
+      <c r="G60">
+        <v>513</v>
+      </c>
+      <c r="H60">
+        <v>966</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>13</v>
+      </c>
+      <c r="L60">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>25</v>
+      </c>
+      <c r="G61">
+        <v>14</v>
+      </c>
+      <c r="H61">
+        <v>966</v>
+      </c>
+      <c r="J61">
+        <v>3</v>
+      </c>
+      <c r="K61">
+        <v>31</v>
+      </c>
+      <c r="L61">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>59</v>
+      </c>
+      <c r="G62">
+        <v>715</v>
+      </c>
+      <c r="H62">
+        <v>966</v>
+      </c>
+      <c r="J62">
+        <v>3</v>
+      </c>
+      <c r="K62">
+        <v>14</v>
+      </c>
+      <c r="L62">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63">
+        <v>86</v>
+      </c>
+      <c r="C63">
+        <v>46</v>
+      </c>
+      <c r="D63">
+        <v>82</v>
+      </c>
+      <c r="E63">
+        <v>137</v>
+      </c>
+      <c r="G63">
+        <v>583</v>
+      </c>
+      <c r="H63">
+        <v>966</v>
+      </c>
+      <c r="J63">
+        <v>28</v>
+      </c>
+      <c r="K63">
+        <v>687</v>
+      </c>
+      <c r="L63">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>209</v>
+      </c>
+      <c r="G64">
+        <v>145</v>
+      </c>
+      <c r="H64">
+        <v>966</v>
+      </c>
+      <c r="J64">
+        <v>3</v>
+      </c>
+      <c r="K64">
+        <v>17</v>
+      </c>
+      <c r="L64">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
+      <c r="D65">
+        <v>9</v>
+      </c>
+      <c r="E65">
+        <v>41</v>
+      </c>
+      <c r="G65">
+        <v>368</v>
+      </c>
+      <c r="H65">
+        <v>966</v>
+      </c>
+      <c r="J65">
+        <v>20</v>
+      </c>
+      <c r="K65">
+        <v>548</v>
+      </c>
+      <c r="L65">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66">
+        <v>61</v>
+      </c>
+      <c r="C66">
+        <v>16</v>
+      </c>
+      <c r="D66">
+        <v>61</v>
+      </c>
+      <c r="E66">
+        <v>424</v>
+      </c>
+      <c r="G66">
+        <v>446</v>
+      </c>
+      <c r="H66">
+        <v>966</v>
+      </c>
+      <c r="J66">
+        <v>3</v>
+      </c>
+      <c r="K66">
+        <v>39</v>
+      </c>
+      <c r="L66">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67">
+        <v>83</v>
+      </c>
+      <c r="C67">
+        <v>28</v>
+      </c>
+      <c r="D67">
+        <v>83</v>
+      </c>
+      <c r="E67">
+        <v>211</v>
+      </c>
+      <c r="G67">
+        <v>550</v>
+      </c>
+      <c r="H67">
+        <v>966</v>
+      </c>
+      <c r="J67">
+        <v>5</v>
+      </c>
+      <c r="K67">
+        <v>62</v>
+      </c>
+      <c r="L67">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>19</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>63</v>
+      </c>
+      <c r="G68">
+        <v>629</v>
+      </c>
+      <c r="H68">
+        <v>966</v>
+      </c>
+      <c r="J68">
+        <v>36</v>
+      </c>
+      <c r="K68">
+        <v>835</v>
+      </c>
+      <c r="L68">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>19</v>
+      </c>
+      <c r="G69">
+        <v>15</v>
+      </c>
+      <c r="H69">
+        <v>967</v>
+      </c>
+      <c r="J69">
+        <v>4</v>
+      </c>
+      <c r="K69">
+        <v>95</v>
+      </c>
+      <c r="L69">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>12</v>
+      </c>
+      <c r="G70">
+        <v>13</v>
+      </c>
+      <c r="H70">
+        <v>966</v>
+      </c>
+      <c r="J70">
+        <v>3</v>
+      </c>
+      <c r="K70">
+        <v>75</v>
+      </c>
+      <c r="L70">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71">
+        <v>23</v>
+      </c>
+      <c r="C71">
+        <v>8</v>
+      </c>
+      <c r="D71">
+        <v>23</v>
+      </c>
+      <c r="E71">
+        <v>41</v>
+      </c>
+      <c r="G71">
+        <v>709</v>
+      </c>
+      <c r="H71">
+        <v>966</v>
+      </c>
+      <c r="J71">
+        <v>3</v>
+      </c>
+      <c r="K71">
+        <v>31</v>
+      </c>
+      <c r="L71">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>45</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>966</v>
+      </c>
+      <c r="J72">
+        <v>3</v>
+      </c>
+      <c r="K72">
+        <v>31</v>
+      </c>
+      <c r="L72">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <v>8</v>
+      </c>
+      <c r="E73">
+        <v>431</v>
+      </c>
+      <c r="G73">
+        <v>113</v>
+      </c>
+      <c r="H73">
+        <v>966</v>
+      </c>
+      <c r="J73">
+        <v>3</v>
+      </c>
+      <c r="K73">
+        <v>39</v>
+      </c>
+      <c r="L73">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>154</v>
+      </c>
+      <c r="G74">
+        <v>476</v>
+      </c>
+      <c r="H74">
+        <v>966</v>
+      </c>
+      <c r="J74">
+        <v>3</v>
+      </c>
+      <c r="K74">
+        <v>31</v>
+      </c>
+      <c r="L74">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>11</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>22</v>
+      </c>
+      <c r="G75">
+        <v>582</v>
+      </c>
+      <c r="H75">
+        <v>966</v>
+      </c>
+      <c r="J75">
+        <v>4</v>
+      </c>
+      <c r="K75">
+        <v>94</v>
+      </c>
+      <c r="L75">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>104</v>
+      </c>
+      <c r="G76">
+        <v>13</v>
+      </c>
+      <c r="H76">
+        <v>966</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+      <c r="K76">
+        <v>25</v>
+      </c>
+      <c r="L76">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>34</v>
+      </c>
+      <c r="G77">
+        <v>739</v>
+      </c>
+      <c r="H77">
+        <v>966</v>
+      </c>
+      <c r="J77">
+        <v>3</v>
+      </c>
+      <c r="K77">
+        <v>30</v>
+      </c>
+      <c r="L77">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78">
+        <v>52</v>
+      </c>
+      <c r="C78">
+        <v>15</v>
+      </c>
+      <c r="D78">
+        <v>52</v>
+      </c>
+      <c r="E78">
+        <v>269</v>
+      </c>
+      <c r="G78">
+        <v>328</v>
+      </c>
+      <c r="H78">
+        <v>966</v>
+      </c>
+      <c r="J78">
+        <v>5</v>
+      </c>
+      <c r="K78">
+        <v>62</v>
+      </c>
+      <c r="L78">
+        <v>966</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L78"/>
@@ -25753,13 +30773,13 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>32</v>
@@ -25785,13 +30805,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C3">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D3">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E3">
         <v>113</v>
@@ -25817,13 +30837,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>19</v>
@@ -25849,13 +30869,13 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>327</v>
@@ -25881,13 +30901,13 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>64</v>
@@ -25913,13 +30933,13 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>34</v>
@@ -25945,13 +30965,13 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>103</v>
@@ -25977,13 +30997,13 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>307</v>
+        <v>70</v>
       </c>
       <c r="C9">
-        <v>241</v>
+        <v>105</v>
       </c>
       <c r="D9">
-        <v>276</v>
+        <v>68</v>
       </c>
       <c r="E9">
         <v>307</v>
@@ -26009,13 +31029,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>40</v>
@@ -26041,13 +31061,13 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>325</v>
@@ -26073,13 +31093,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>20</v>
@@ -26105,13 +31125,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>35</v>
@@ -26137,13 +31157,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>308</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>187</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>269</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>308</v>
@@ -26169,13 +31189,13 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>126</v>
@@ -26201,13 +31221,13 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>14</v>
@@ -26233,13 +31253,13 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E17">
         <v>207</v>
@@ -26265,13 +31285,13 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>269</v>
@@ -26297,13 +31317,13 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>131</v>
@@ -26329,13 +31349,13 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>130</v>
@@ -26361,13 +31381,13 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>39</v>
@@ -26393,13 +31413,13 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>159</v>
@@ -26425,13 +31445,13 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>19</v>
@@ -26457,10 +31477,10 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -26489,13 +31509,13 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>17</v>
@@ -26521,13 +31541,13 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>191</v>
@@ -26553,13 +31573,13 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>33</v>
@@ -26585,13 +31605,13 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>309</v>
@@ -26617,13 +31637,13 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E29">
         <v>45</v>
@@ -26649,13 +31669,13 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>190</v>
@@ -26713,13 +31733,13 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <v>129</v>
@@ -26745,7 +31765,7 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -26777,13 +31797,13 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>56</v>
@@ -26809,13 +31829,13 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35">
         <v>330</v>
@@ -26841,13 +31861,13 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E36">
         <v>146</v>
@@ -26873,13 +31893,13 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E37">
         <v>98</v>
@@ -26905,13 +31925,13 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E38">
         <v>19</v>
@@ -26937,7 +31957,7 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -26969,13 +31989,13 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E40">
         <v>325</v>
@@ -27001,13 +32021,13 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>17</v>
@@ -27033,13 +32053,13 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42">
         <v>10</v>
-      </c>
-      <c r="D42">
-        <v>12</v>
       </c>
       <c r="E42">
         <v>19</v>
@@ -27065,13 +32085,13 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>15</v>
@@ -27097,13 +32117,13 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C44">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D44">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E44">
         <v>41</v>
@@ -27129,13 +32149,13 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E45">
         <v>41</v>
@@ -27161,13 +32181,13 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>42</v>
@@ -27193,13 +32213,13 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C47">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D47">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E47">
         <v>38</v>
@@ -27225,13 +32245,13 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E48">
         <v>27</v>
@@ -27257,13 +32277,13 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E49">
         <v>29</v>
@@ -27321,13 +32341,13 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51">
         <v>26</v>
@@ -27353,13 +32373,13 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>75</v>
@@ -27385,13 +32405,13 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E53">
         <v>89</v>
@@ -27417,13 +32437,13 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C54">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E54">
         <v>38</v>
@@ -27449,13 +32469,13 @@
         <v>63</v>
       </c>
       <c r="B55">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E55">
         <v>129</v>
@@ -27481,13 +32501,13 @@
         <v>64</v>
       </c>
       <c r="B56">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C56">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E56">
         <v>21</v>
@@ -27513,13 +32533,13 @@
         <v>65</v>
       </c>
       <c r="B57">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <v>131</v>
@@ -27545,13 +32565,13 @@
         <v>66</v>
       </c>
       <c r="B58">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E58">
         <v>123</v>
@@ -27577,13 +32597,13 @@
         <v>67</v>
       </c>
       <c r="B59">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59">
         <v>46</v>
@@ -27609,7 +32629,7 @@
         <v>68</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -27641,7 +32661,7 @@
         <v>69</v>
       </c>
       <c r="B61">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -27673,13 +32693,13 @@
         <v>70</v>
       </c>
       <c r="B62">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="E62">
         <v>59</v>
@@ -27705,13 +32725,13 @@
         <v>71</v>
       </c>
       <c r="B63">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="C63">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D63">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="E63">
         <v>137</v>
@@ -27737,13 +32757,13 @@
         <v>72</v>
       </c>
       <c r="B64">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>209</v>
@@ -27769,13 +32789,13 @@
         <v>73</v>
       </c>
       <c r="B65">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C65">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D65">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E65">
         <v>41</v>
@@ -27801,13 +32821,13 @@
         <v>74</v>
       </c>
       <c r="B66">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E66">
         <v>424</v>
@@ -27833,13 +32853,13 @@
         <v>75</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E67">
         <v>211</v>
@@ -27865,13 +32885,13 @@
         <v>76</v>
       </c>
       <c r="B68">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C68">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E68">
         <v>63</v>
@@ -27897,13 +32917,13 @@
         <v>77</v>
       </c>
       <c r="B69">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E69">
         <v>19</v>
@@ -27961,13 +32981,13 @@
         <v>79</v>
       </c>
       <c r="B71">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E71">
         <v>41</v>
@@ -28025,13 +33045,13 @@
         <v>81</v>
       </c>
       <c r="B73">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="C73">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D73">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E73">
         <v>431</v>
@@ -28057,13 +33077,13 @@
         <v>82</v>
       </c>
       <c r="B74">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74">
         <v>154</v>
@@ -28089,13 +33109,13 @@
         <v>83</v>
       </c>
       <c r="B75">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C75">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D75">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E75">
         <v>22</v>
@@ -28121,13 +33141,13 @@
         <v>84</v>
       </c>
       <c r="B76">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E76">
         <v>104</v>
@@ -28153,13 +33173,13 @@
         <v>85</v>
       </c>
       <c r="B77">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C77">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E77">
         <v>34</v>
@@ -28185,13 +33205,13 @@
         <v>86</v>
       </c>
       <c r="B78">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E78">
         <v>269</v>
